--- a/biology/Botanique/Retrait_du_bois/Retrait_du_bois.xlsx
+++ b/biology/Botanique/Retrait_du_bois/Retrait_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le retrait du bois est le phénomène selon lequel les dimensions d'une pièce de bois varient avec son taux d'humidité. On parle de retrait car le bois frais a des dimensions maximales.
 En ce qui concerne le bois d'œuvre, ce phénomène a pour conséquence la nécessité de sécher le bois.
@@ -512,7 +524,9 @@
           <t>Mise en évidence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On constate un taux d'humidité en dessous duquel les dimensions du bois varient. Ce taux d'humidité est appelé « point de saturation des fibres ».
 Le retrait du bois n'est cependant pas identique selon les différentes directions du bois : longitudinale (axe de l'arbre), radiale (de la moelle vers l'écorce), et tangentielle (tangente à l'écorce). Le retrait longitudinal est très faible par rapport aux deux autres (de l'ordre de grandeur de dix fois moindre, cette valeur variant en fonction des espèces).
@@ -545,7 +559,9 @@
           <t>Quantification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On définit la notion de retrait total, qui est le retrait du bois entre les états saturé et anhydre. Il peut s'agir du retrait dans une des dimensions, ou bien du retrait volumique.
 On constate par ailleurs qu'en dessous du point de saturation, la valeur d'une dimension d'une pièce de bois est une fonction affine du taux d'humidité sur sec. Autrement dit, il existe 
@@ -595,7 +611,9 @@
           <t>Approche physiologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut considérer que l'eau dans le bois est de deux « types » : l'eau « libre », qui se situe dans les vides du bois (lumière des fibres, vaisseaux, trachéides), et l'eau « liée » qui est imprégnée dans la cellulose des fibres. Quand le bois sèche, c'est essentiellement l'eau libre qui part d'abord. Le séchage se passe alors sans variation dimensionnelle.
 Quand toute l'eau libre a quitté le bois, on a atteint le point de saturation des fibres : toute l'eau est contenue dans les fibres, lesquelles sont saturées.
